--- a/策划文档/【英雄绘卷】实时对战.xlsx
+++ b/策划文档/【英雄绘卷】实时对战.xlsx
@@ -4,23 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="20925" windowHeight="9840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
     <sheet name="两两对战" sheetId="2" r:id="rId2"/>
     <sheet name="小地图对战" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="匹配及排行榜" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>匹配战斗</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>炉石传说</t>
   </si>
@@ -28,27 +25,12 @@
     <t>皇室战争</t>
   </si>
   <si>
-    <t>多轮战斗</t>
-  </si>
-  <si>
     <t>蘑菇大战2</t>
   </si>
   <si>
     <t>字走三国</t>
   </si>
   <si>
-    <t>多套阵容</t>
-  </si>
-  <si>
-    <t>武将状态</t>
-  </si>
-  <si>
-    <t>不消耗体力</t>
-  </si>
-  <si>
-    <t>段位制，每日结算</t>
-  </si>
-  <si>
     <t>主城武将</t>
   </si>
   <si>
@@ -152,6 +134,132 @@
   </si>
   <si>
     <t>排行榜</t>
+  </si>
+  <si>
+    <t>玩家有声望值。从0开始，上不封顶</t>
+  </si>
+  <si>
+    <t>匹配时，优先匹配到跟自己声望值最接近的对手</t>
+  </si>
+  <si>
+    <t>对战结束后，根据胜负结果及声望值差距进行声望结算</t>
+  </si>
+  <si>
+    <t>强者胜</t>
+  </si>
+  <si>
+    <t>弱者胜</t>
+  </si>
+  <si>
+    <t>声望值差</t>
+  </si>
+  <si>
+    <t>强者</t>
+  </si>
+  <si>
+    <t>弱者</t>
+  </si>
+  <si>
+    <t>10以内</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>10至20</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>20至50</t>
+  </si>
+  <si>
+    <t>50至100</t>
+  </si>
+  <si>
+    <t>100至500</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>-0</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>500以上</t>
+  </si>
+  <si>
+    <t>+0</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>整个服务器根据玩家当前声望进行排名</t>
+  </si>
+  <si>
+    <t>每晚9点根据排名，分段进行奖励</t>
+  </si>
+  <si>
+    <t>名次</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>3~5</t>
+  </si>
+  <si>
+    <t>5~10</t>
+  </si>
+  <si>
+    <t>10~20</t>
+  </si>
+  <si>
+    <t>20~50</t>
+  </si>
+  <si>
+    <t>50~100</t>
+  </si>
+  <si>
+    <t>100~200</t>
+  </si>
+  <si>
+    <t>200~500</t>
+  </si>
+  <si>
+    <t>500~1000</t>
+  </si>
+  <si>
+    <t>1000以上</t>
   </si>
 </sst>
 </file>
@@ -330,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +453,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,12 +644,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,154 +773,175 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1144,61 +1294,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:I13"/>
+  <dimension ref="B3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9">
-      <c r="C4" s="1" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="9:9">
-      <c r="I5" s="1" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="9:9">
-      <c r="I7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1213,187 +1339,187 @@
   <sheetPr/>
   <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="16.75" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:11">
-      <c r="C3" s="1" t="s">
+    <row r="6" spans="3:3">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="1" t="s">
+    <row r="12" spans="3:3">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+    <row r="13" spans="3:3">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+    <row r="15" spans="3:3">
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+    <row r="16" spans="3:3">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+    <row r="23" spans="3:10">
+      <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="J23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="1" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="1" t="s">
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="9" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1423,14 +1549,256 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/策划文档/【英雄绘卷】实时对战.xlsx
+++ b/策划文档/【英雄绘卷】实时对战.xlsx
@@ -4,57 +4,59 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" activeTab="3"/>
+    <workbookView windowWidth="20925" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="思路" sheetId="1" r:id="rId1"/>
-    <sheet name="两两对战" sheetId="2" r:id="rId2"/>
-    <sheet name="小地图对战" sheetId="3" r:id="rId3"/>
-    <sheet name="匹配及排行榜" sheetId="4" r:id="rId4"/>
+    <sheet name="TCG思路" sheetId="2" r:id="rId1"/>
+    <sheet name="匹配及排行榜" sheetId="4" r:id="rId2"/>
+    <sheet name="卡牌库" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+  <si>
+    <t>主城武将</t>
+  </si>
+  <si>
+    <t>武将分阵营</t>
+  </si>
+  <si>
+    <t>武将有健康状态</t>
+  </si>
   <si>
     <t>炉石传说</t>
   </si>
   <si>
+    <t>武将可设置出战，成为对战的牌库</t>
+  </si>
+  <si>
+    <t>18级</t>
+  </si>
+  <si>
+    <t>出战20</t>
+  </si>
+  <si>
+    <t>自动填充（橙色1，红色2）</t>
+  </si>
+  <si>
     <t>皇室战争</t>
   </si>
   <si>
+    <t>武将增加属性：战令耗费值</t>
+  </si>
+  <si>
     <t>蘑菇大战2</t>
   </si>
   <si>
+    <t>匹配</t>
+  </si>
+  <si>
     <t>字走三国</t>
   </si>
   <si>
-    <t>主城武将</t>
-  </si>
-  <si>
-    <t>武将有健康状态</t>
-  </si>
-  <si>
-    <t>武将可设置出战，成为对战的牌库</t>
-  </si>
-  <si>
-    <t>18级</t>
-  </si>
-  <si>
-    <t>出战20</t>
-  </si>
-  <si>
-    <t>自动填充（橙色1，红色2）</t>
-  </si>
-  <si>
-    <t>武将增加属性：战令耗费值</t>
-  </si>
-  <si>
-    <t>匹配</t>
-  </si>
-  <si>
     <t>两两匹配后开始战斗</t>
   </si>
   <si>
@@ -169,31 +171,55 @@
     <t>-4</t>
   </si>
   <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>10至20</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>20至50</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>+8</t>
+  </si>
+  <si>
+    <t>50至100</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
     <t>-1</t>
   </si>
   <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>10至20</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>20至50</t>
-  </si>
-  <si>
-    <t>50至100</t>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>+9</t>
   </si>
   <si>
     <t>100至500</t>
@@ -205,10 +231,10 @@
     <t>-0</t>
   </si>
   <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>+6</t>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>+10</t>
   </si>
   <si>
     <t>500以上</t>
@@ -220,7 +246,7 @@
     <t>-10</t>
   </si>
   <si>
-    <t>+10</t>
+    <t>+11</t>
   </si>
   <si>
     <t>整个服务器根据玩家当前声望进行排名</t>
@@ -260,6 +286,64 @@
   </si>
   <si>
     <t>1000以上</t>
+  </si>
+  <si>
+    <t>选择套牌后，开始匹配</t>
+  </si>
+  <si>
+    <t>套牌构成</t>
+  </si>
+  <si>
+    <t>牌库一共30张</t>
+  </si>
+  <si>
+    <t>玩家出战</t>
+  </si>
+  <si>
+    <t>玩家等级提升后，可出战数增加</t>
+  </si>
+  <si>
+    <t>势力所属武将单位</t>
+  </si>
+  <si>
+    <t>曹操、刘备、孙权、袁绍等</t>
+  </si>
+  <si>
+    <t>付费的稀缺武将可在炼狱玩法中有限产出</t>
+  </si>
+  <si>
+    <t>群雄武将单位
+辅助单位</t>
+  </si>
+  <si>
+    <t>随机库</t>
+  </si>
+  <si>
+    <t>玩家出战数不足时补充</t>
+  </si>
+  <si>
+    <t>群雄完全看运气，也有高品质的武将。但群雄与势力没有好的羁绊</t>
+  </si>
+  <si>
+    <t>套牌操作</t>
+  </si>
+  <si>
+    <t>主城中切换势力</t>
+  </si>
+  <si>
+    <t>势力列表中显示势力武将单位，同时显示群雄、辅助单位</t>
+  </si>
+  <si>
+    <t>武将出战数和辅助出战数合并</t>
+  </si>
+  <si>
+    <t>在势力列表中直接选择出战</t>
+  </si>
+  <si>
+    <t>战役出战、对战出战</t>
+  </si>
+  <si>
+    <t>同一武将会归属多个势力</t>
   </si>
 </sst>
 </file>
@@ -267,9 +351,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -294,8 +378,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,13 +395,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -324,7 +402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,8 +416,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,33 +487,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,17 +501,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,28 +515,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -459,25 +543,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,85 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,60 +717,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -644,11 +728,24 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -669,6 +766,32 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -679,6 +802,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,24 +847,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,17 +867,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -773,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,19 +893,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,145 +914,151 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1294,37 +1408,207 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:B6"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+    <row r="3" spans="3:14">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1337,462 +1621,244 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="16.75" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3">
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11">
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:G33"/>
+  <dimension ref="C2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="3"/>
+    <row r="2" spans="3:3">
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="4:7">
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="G10" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="G11" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>53</v>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
+      <c r="C13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
+      <c r="C14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3"/>
+      <c r="C15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>71</v>
+      <c r="C22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="8">
+      <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="8">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="6"/>
+      <c r="C25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="6"/>
+      <c r="C26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="3:4">
-      <c r="C27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="6"/>
+      <c r="C27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="3:4">
-      <c r="C28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="6"/>
+      <c r="C28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="3:4">
-      <c r="C29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="6"/>
+      <c r="C29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="3:4">
-      <c r="C30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="6"/>
+      <c r="C30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="3:4">
-      <c r="C31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="C31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="3:4">
-      <c r="C32" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="6"/>
+      <c r="C32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="6"/>
+      <c r="C33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1802,4 +1868,120 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="3:9">
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="3:6">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" ht="60" customHeight="1" spans="3:9">
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="I9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/策划文档/【英雄绘卷】实时对战.xlsx
+++ b/策划文档/【英雄绘卷】实时对战.xlsx
@@ -10,13 +10,14 @@
     <sheet name="TCG思路" sheetId="2" r:id="rId1"/>
     <sheet name="匹配及排行榜" sheetId="4" r:id="rId2"/>
     <sheet name="卡牌库" sheetId="5" r:id="rId3"/>
+    <sheet name="对战" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>主城武将</t>
   </si>
@@ -138,7 +139,7 @@
     <t>排行榜</t>
   </si>
   <si>
-    <t>玩家有声望值。从0开始，上不封顶</t>
+    <t>玩家有声望值（属性）。从0开始，上不封顶</t>
   </si>
   <si>
     <t>匹配时，优先匹配到跟自己声望值最接近的对手</t>
@@ -344,6 +345,30 @@
   </si>
   <si>
     <t>同一武将会归属多个势力</t>
+  </si>
+  <si>
+    <t>开始战斗前确定回合顺序：先进行A的回合，还是B的回合？</t>
+  </si>
+  <si>
+    <t>之后轮流进行双方的回合</t>
+  </si>
+  <si>
+    <t>在A的回合内，A能进行抽牌和上阵操作</t>
+  </si>
+  <si>
+    <t>A操作完毕后，本地计算战斗过程，并将战斗过程打包上传服务器，同步发送给B</t>
+  </si>
+  <si>
+    <t>之后进入B的回合</t>
+  </si>
+  <si>
+    <t>A的回合</t>
+  </si>
+  <si>
+    <t>B的回合</t>
+  </si>
+  <si>
+    <t>……</t>
   </si>
 </sst>
 </file>
@@ -351,10 +376,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -378,9 +403,122 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,54 +533,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,74 +544,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -543,7 +568,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,7 +616,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +664,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,79 +724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,55 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,17 +801,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,26 +849,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,35 +898,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -881,10 +906,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,31 +918,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,100 +957,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,6 +1144,1341 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="2391410"/>
+          <a:ext cx="1171575" cy="1132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>【玩家</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进行操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算战斗过程</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>传送，播放</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="2593975"/>
+          <a:ext cx="838200" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务器</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260975" y="2413000"/>
+          <a:ext cx="1257935" cy="1056005"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>【玩家</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>接收，播放</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2847975" y="2818130"/>
+          <a:ext cx="708025" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4394200" y="2818130"/>
+          <a:ext cx="866775" cy="123190"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1660525" y="3737610"/>
+          <a:ext cx="1171575" cy="1132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>【玩家</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3578225" y="3911600"/>
+          <a:ext cx="838200" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务器</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>205105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="3759200"/>
+          <a:ext cx="1257935" cy="1056005"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>【玩家</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4416425" y="4135755"/>
+          <a:ext cx="828675" cy="151765"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2832100" y="4135755"/>
+          <a:ext cx="746125" cy="168275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393065</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="虚尾箭头 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="645795" y="2807335"/>
+          <a:ext cx="628015" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>195580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="虚尾箭头 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="629920" y="4163060"/>
+          <a:ext cx="628015" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="stripedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1410,8 +2770,8 @@
   <sheetPr/>
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1624,7 +2984,7 @@
   <dimension ref="C2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1876,7 +3236,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1984,4 +3344,70 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>